--- a/tmf/src/test/UnitTestData/Database/setWherePk/TestCase001/OutDB.xlsx
+++ b/tmf/src/test/UnitTestData/Database/setWherePk/TestCase001/OutDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasu1\workspace\java\unitTest\tmf\src\test\UnitTests\WebUtilTest\splitId\TestCase001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasu1\workspace\java\unitTest\tmf\src\test\UnitTestData\Database\setWherePk\TestCase001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0E65A-2D78-4722-B918-AC330BD0692C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE96E4-3132-4669-94DC-C4B6C247EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>44302.429282407407</v>

--- a/tmf/src/test/UnitTestData/Database/setWherePk/TestCase001/OutDB.xlsx
+++ b/tmf/src/test/UnitTestData/Database/setWherePk/TestCase001/OutDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasu1\workspace\java\unitTest\tmf\src\test\UnitTestData\Database\setWherePk\TestCase001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE96E4-3132-4669-94DC-C4B6C247EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EC22A-5155-40CB-BB8B-8CE1F13049EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="D4" s="2">
         <v>44302.429282407407</v>
